--- a/biology/Zoologie/Glossaire_des_insectes/Glossaire_des_insectes.xlsx
+++ b/biology/Zoologie/Glossaire_des_insectes/Glossaire_des_insectes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -537,7 +549,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Abdomen, troisième section de l'anatomie des insectes.
 Acetabulum, fossette ou cavité dans laquelle vient se loger un appendice ou une partie d'appendice au repos.
@@ -588,7 +602,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Balancier, chez les Diptères, organes allongés qui ont pris la place des ailes postérieures (Syn. Haltère).
 Bipectiné, qualifie des appendices, en particulier l'antenne, lorsque chaque article possède deux processus latéraux.
@@ -620,7 +636,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Carène, arête ou quille plus ou moins élevée, plus ou moins tranchante.
 Cellule :
@@ -667,6 +685,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -692,7 +712,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Écusson, ou scutellum, petite plaque triangulaire ou arrondie placée à la base des élytres, à l'origine de la suture.
 Edéage, appellation de l'équivalent du pénis chez les insectes. Est synonyme de bulbe génital.
@@ -734,7 +756,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Facié(e), Qui est marqué de bandes
 Fémur, pièce des pattes.
@@ -772,7 +796,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Galea, pièce buccale, appendices des maxilles, plus ou moins allongés, appartenant à la langue.
 Gastre, reste de l'abdomen généralement séparé, chez les Apocrites, du propodéum par une constriction plus ou moins marquée (c'est ce qu'on appelle la taille de guêpe).
@@ -806,7 +832,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Habitus, vue du corps, apparence.
 Haltère, voir balancier.
@@ -840,7 +868,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Idiobionte, qualifie les insectes entomophages qui tuent dans un premier temps leur hôte et déposent leurs œufs sur le cadavre de celui-ci. Ce sont généralement des ectophages relativement polyphages. Les insectes oophages ainsi que les endoparasitoides pupaux relèvent de ce type.
 Imago, forme définitive, adulte, d'un insecte sexué, devenu apte à la reproduction.
@@ -873,6 +903,8 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -898,7 +930,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Koinobiontes, qualifie les insectes parasitoîdes qui maintiennent leur hôte en vie tout au long de leur propre développement jusqu'à leur propre nymphose. Ils sont généralement endoparasites et souvent monophages (parasites spécialisés). Les hyperparasites relèvent souvent de ce groupe biologique.</t>
         </is>
@@ -928,7 +962,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Labium, pièce buccale appartenant à la langue.
 Labre, lèvre supérieure (1re pièce buccale), il couvre la base des mandibules et forme la voûte de la cavité buccale des insectes.
@@ -962,7 +998,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Mandibules, pièces buccales, sclérifiées, tranchantes, plus ou moins développées, constituants la première paire d'appendices buccaux.
 Maxille, pièces buccales (mâchoire).
@@ -1008,7 +1046,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Nécrophage, qui se nourrit de cadavres d'animaux.
 Nervures, tube chitineux formant un épaississement constituant un réseau complexe sur l'aile et qui délimitent un certain nombre de cellules.
@@ -1044,7 +1084,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Ocelle (œil), œil simple photorécepteur des insectes placé sur le front ou sur le vertex au nombre de 2 ou 3.
 Ocelle (camouflage), tache arrondie, sur les ailes, dont le centre est d'une autre couleur que la circonférence.
@@ -1084,7 +1126,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Palpes, petits appendices des pièces buccales, portant souvent les organes sensoriels du toucher, du goût et de l'odorat :
 Palpe labial, pièce buccale, appartenant à la langue.
@@ -1139,6 +1183,8 @@
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1164,7 +1210,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Récliné, tourné vers l'arrière.
 Réticulé, dont la surface est formé de mailles de cellules, délimitées par des lignes surélevé de la cuticule.
@@ -1198,7 +1246,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Scape, l'article le plus basal de l'antenne (1er article).
 Scapule
@@ -1246,7 +1296,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Tarse, pièce terminale des pattes.
 Tegmen (pluriel tegmina), l'aile antérieure coriacée des sauterelle et autres insectes telles les blattes.
@@ -1290,7 +1342,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Ubiquiste, qui vit dans des milieux très différents.
 Univoltin, se dit d'un animal qui produit une génération par an (deux générations par an est dit bivoltin, trivoltin pour trois générations, etc.)
@@ -1322,7 +1376,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Vertex, sommet de la voûte crânienne de la tête de l'insecte. Section de l'épicrâne située immédiatement en arrière du front entre les yeux composés. Cette région porte habituellement les ocelles paires.</t>
         </is>
@@ -1353,6 +1409,8 @@
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1378,7 +1436,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Xylophage, qui se nourrit de bois.</t>
         </is>
@@ -1409,6 +1469,8 @@
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1434,7 +1496,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t xml:space="preserve">Zoophage, qui se nourrit d'animaux vivants.
  Portail de l’entomologie                     </t>
